--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Pneumatic_DefaultValus.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Pneumatic_DefaultValus.xlsx
@@ -8,30 +8,30 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="143" r:id="rId1"/>
-    <sheet name="Output_KPA_Manualadjust_dfltval" r:id="rId24" sheetId="557"/>
-    <sheet name="Output_KPA_dfltval_Mnladjst_ntv" r:id="rId25" sheetId="558"/>
-    <sheet name="Output_BAR_dfltval_Mnladjst_ntv" r:id="rId32" sheetId="560"/>
-    <sheet name="Output_BAR_Dflt_Manualadjust" r:id="rId31" sheetId="561"/>
-    <sheet name="Output_PSI_dfltval_Mnladjst" r:id="rId33" sheetId="562"/>
-    <sheet name="Output_PSI_dfltval_Mnladjst_ntv" r:id="rId35" sheetId="563"/>
-    <sheet name="OP_Elctrnicadjst_KPA_Dfltval" r:id="rId26" sheetId="564"/>
-    <sheet name="OP_Elcadj_Dfltval_KPA_Ntv" r:id="rId27" sheetId="565"/>
-    <sheet name="OP_Elctrnicadjst_BAR_Dfltval" r:id="rId37" sheetId="566"/>
-    <sheet name="OP_Elcadj_Dfltval_BAR_Ntv" r:id="rId21" sheetId="567"/>
-    <sheet name="OP_Elctrnicadjst_PSI_Dfltval" r:id="rId22" sheetId="568"/>
-    <sheet name="OP_Elcadj_Dfltval_PSI_Ntv" r:id="rId23" sheetId="569"/>
-    <sheet name="Output_KPA_Dfltvals_Runup" r:id="rId28" sheetId="570"/>
-    <sheet name="Output_BAR_Dfltvals_Runup" r:id="rId29" sheetId="571"/>
-    <sheet name="Output_PSI_Dfltvals_Runup" r:id="rId30" sheetId="572"/>
-    <sheet name="Output_Dfltval_Runup_Lnspd_ftmn" r:id="rId34" sheetId="573"/>
-    <sheet name="Output_Dfltval_Runup_Lnspd_mmn" r:id="rId36" sheetId="574"/>
+    <sheet name="Output_KPA_Manualadjust_dfltval" r:id="rId24" sheetId="575"/>
+    <sheet name="Output_KPA_dfltval_Mnladjst_ntv" r:id="rId25" sheetId="576"/>
+    <sheet name="Output_BAR_dfltval_Mnladjst_ntv" r:id="rId32" sheetId="578"/>
+    <sheet name="Output_BAR_Dflt_Manualadjust" r:id="rId31" sheetId="579"/>
+    <sheet name="Output_PSI_dfltval_Mnladjst" r:id="rId33" sheetId="580"/>
+    <sheet name="Output_PSI_dfltval_Mnladjst_ntv" r:id="rId35" sheetId="581"/>
+    <sheet name="OP_Elctrnicadjst_KPA_Dfltval" r:id="rId26" sheetId="582"/>
+    <sheet name="OP_Elcadj_Dfltval_KPA_Ntv" r:id="rId27" sheetId="583"/>
+    <sheet name="OP_Elctrnicadjst_BAR_Dfltval" r:id="rId37" sheetId="584"/>
+    <sheet name="OP_Elcadj_Dfltval_BAR_Ntv" r:id="rId21" sheetId="585"/>
+    <sheet name="OP_Elctrnicadjst_PSI_Dfltval" r:id="rId22" sheetId="586"/>
+    <sheet name="OP_Elcadj_Dfltval_PSI_Ntv" r:id="rId23" sheetId="587"/>
+    <sheet name="Output_KPA_Dfltvals_Runup" r:id="rId28" sheetId="588"/>
+    <sheet name="Output_BAR_Dfltvals_Runup" r:id="rId29" sheetId="589"/>
+    <sheet name="Output_PSI_Dfltvals_Runup" r:id="rId30" sheetId="590"/>
+    <sheet name="Output_Dfltval_Runup_Lnspd_ftmn" r:id="rId34" sheetId="591"/>
+    <sheet name="Output_Dfltval_Runup_Lnspd_mmn" r:id="rId36" sheetId="592"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="39">
   <si>
     <t>ulLowPressureAlertThreshold</t>
   </si>
@@ -1099,7 +1099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet557.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet575.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1128,7 +1128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet558.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet576.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1157,7 +1157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet560.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet578.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1186,7 +1186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet561.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet579.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1215,7 +1215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet562.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet580.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1244,7 +1244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet563.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet581.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1273,7 +1273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet564.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet582.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1320,7 +1320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet565.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet583.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1367,7 +1367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet566.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet584.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1414,7 +1414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet567.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet585.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1461,7 +1461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet568.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet586.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1508,7 +1508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet569.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet587.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1555,7 +1555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet570.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet588.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1608,7 +1608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet571.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet589.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1661,7 +1661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet572.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet590.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1714,7 +1714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet573.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet591.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1749,7 +1749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet574.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet592.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Pneumatic_DefaultValus.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Pneumatic_DefaultValus.xlsx
@@ -8,30 +8,30 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="143" r:id="rId1"/>
-    <sheet name="Output_KPA_Manualadjust_dfltval" r:id="rId24" sheetId="575"/>
-    <sheet name="Output_KPA_dfltval_Mnladjst_ntv" r:id="rId25" sheetId="576"/>
-    <sheet name="Output_BAR_dfltval_Mnladjst_ntv" r:id="rId32" sheetId="578"/>
-    <sheet name="Output_BAR_Dflt_Manualadjust" r:id="rId31" sheetId="579"/>
-    <sheet name="Output_PSI_dfltval_Mnladjst" r:id="rId33" sheetId="580"/>
-    <sheet name="Output_PSI_dfltval_Mnladjst_ntv" r:id="rId35" sheetId="581"/>
-    <sheet name="OP_Elctrnicadjst_KPA_Dfltval" r:id="rId26" sheetId="582"/>
-    <sheet name="OP_Elcadj_Dfltval_KPA_Ntv" r:id="rId27" sheetId="583"/>
-    <sheet name="OP_Elctrnicadjst_BAR_Dfltval" r:id="rId37" sheetId="584"/>
-    <sheet name="OP_Elcadj_Dfltval_BAR_Ntv" r:id="rId21" sheetId="585"/>
-    <sheet name="OP_Elctrnicadjst_PSI_Dfltval" r:id="rId22" sheetId="586"/>
-    <sheet name="OP_Elcadj_Dfltval_PSI_Ntv" r:id="rId23" sheetId="587"/>
-    <sheet name="Output_KPA_Dfltvals_Runup" r:id="rId28" sheetId="588"/>
-    <sheet name="Output_BAR_Dfltvals_Runup" r:id="rId29" sheetId="589"/>
-    <sheet name="Output_PSI_Dfltvals_Runup" r:id="rId30" sheetId="590"/>
-    <sheet name="Output_Dfltval_Runup_Lnspd_ftmn" r:id="rId34" sheetId="591"/>
-    <sheet name="Output_Dfltval_Runup_Lnspd_mmn" r:id="rId36" sheetId="592"/>
+    <sheet name="Output_KPA_Manualadjust_dfltval" r:id="rId24" sheetId="722"/>
+    <sheet name="Output_KPA_dfltval_Mnladjst_ntv" r:id="rId25" sheetId="723"/>
+    <sheet name="Output_BAR_dfltval_Mnladjst_ntv" r:id="rId32" sheetId="725"/>
+    <sheet name="Output_BAR_Dflt_Manualadjust" r:id="rId31" sheetId="726"/>
+    <sheet name="Output_PSI_dfltval_Mnladjst" r:id="rId33" sheetId="727"/>
+    <sheet name="Output_PSI_dfltval_Mnladjst_ntv" r:id="rId35" sheetId="728"/>
+    <sheet name="OP_Elctrnicadjst_KPA_Dfltval" r:id="rId26" sheetId="729"/>
+    <sheet name="OP_Elcadj_Dfltval_KPA_Ntv" r:id="rId27" sheetId="730"/>
+    <sheet name="OP_Elctrnicadjst_BAR_Dfltval" r:id="rId37" sheetId="731"/>
+    <sheet name="OP_Elcadj_Dfltval_BAR_Ntv" r:id="rId21" sheetId="732"/>
+    <sheet name="OP_Elctrnicadjst_PSI_Dfltval" r:id="rId22" sheetId="733"/>
+    <sheet name="OP_Elcadj_Dfltval_PSI_Ntv" r:id="rId23" sheetId="734"/>
+    <sheet name="Output_KPA_Dfltvals_Runup" r:id="rId28" sheetId="735"/>
+    <sheet name="Output_BAR_Dfltvals_Runup" r:id="rId29" sheetId="736"/>
+    <sheet name="Output_PSI_Dfltvals_Runup" r:id="rId30" sheetId="737"/>
+    <sheet name="Output_Dfltval_Runup_Lnspd_ftmn" r:id="rId34" sheetId="738"/>
+    <sheet name="Output_Dfltval_Runup_Lnspd_mmn" r:id="rId36" sheetId="739"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="39">
   <si>
     <t>ulLowPressureAlertThreshold</t>
   </si>
@@ -1099,7 +1099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet575.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet722.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1128,7 +1128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet576.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet723.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1157,7 +1157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet578.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet725.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1186,7 +1186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet579.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet726.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1215,7 +1215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet580.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet727.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1244,7 +1244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet581.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet728.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1273,7 +1273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet582.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet729.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1320,7 +1320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet583.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet730.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1367,7 +1367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet584.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet731.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1414,7 +1414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet585.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet732.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1461,7 +1461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet586.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet733.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1508,7 +1508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet587.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet734.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1555,7 +1555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet588.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet735.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1608,7 +1608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet589.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet736.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1661,7 +1661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet590.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet737.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1714,7 +1714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet591.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet738.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1749,7 +1749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet592.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet739.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C2"/>
   <sheetViews>
